--- a/va_facility_data_2025-02-20/White City VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''White%20City%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/White City VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''White%20City%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,11 +2,11 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Ra0065a27b59b4e44bc318f76d7d71cb2"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="2" r:id="Rb70563cb4b794e5ab00d331ef8ba5a54"/>
-    <x:sheet name="Wait Times" sheetId="3" r:id="R2882992e722c42e2b8358eff27822c02"/>
-    <x:sheet name="Satisfaction with Care" sheetId="4" r:id="R73f6a2bdfeb6436c94636e3a7fe45c93"/>
-    <x:sheet name="Outpatient Score" sheetId="5" r:id="R3b1010f81029415083f41cfc7242035c"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R246ee2f978e241878355b9b7cb434f2f"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="2" r:id="R42cb3b9a16b345f8913b00fca35faa70"/>
+    <x:sheet name="Wait Times" sheetId="3" r:id="Rb5b1a6bf25a7437c8d23d1603e64fac7"/>
+    <x:sheet name="Satisfaction with Care" sheetId="4" r:id="R0d32e01f5c844ec29ef0dd70a4508a7d"/>
+    <x:sheet name="Outpatient Score" sheetId="5" r:id="R7b6b98579ec941f5a625e67c654573cf"/>
   </x:sheets>
 </x:workbook>
 </file>
